--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2618.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2618.xlsx
@@ -354,7 +354,7 @@
         <v>1.580421573901906</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.792135203044668</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2618.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2618.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7817457484207455</v>
+        <v>1.270298957824707</v>
       </c>
       <c r="B1">
-        <v>1.580421573901906</v>
+        <v>2.150876998901367</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.676649570465088</v>
       </c>
       <c r="D1">
-        <v>1.792135203044668</v>
+        <v>3.123369693756104</v>
       </c>
       <c r="E1">
-        <v>0.9201278240451832</v>
+        <v>1.375371336936951</v>
       </c>
     </row>
   </sheetData>
